--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N2">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P2">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q2">
-        <v>0.03005697979266666</v>
+        <v>1.610129468794</v>
       </c>
       <c r="R2">
-        <v>0.270512818134</v>
+        <v>14.491165219146</v>
       </c>
       <c r="S2">
-        <v>1.925375394273279E-05</v>
+        <v>0.006844610354604591</v>
       </c>
       <c r="T2">
-        <v>1.925375394273278E-05</v>
+        <v>0.00684461035460459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P3">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q3">
-        <v>0.2654266295373333</v>
+        <v>13.88962196707067</v>
       </c>
       <c r="R3">
-        <v>2.388839665836</v>
+        <v>125.006597703636</v>
       </c>
       <c r="S3">
-        <v>0.0001700256995284523</v>
+        <v>0.05904435151327474</v>
       </c>
       <c r="T3">
-        <v>0.0001700256995284523</v>
+        <v>0.05904435151327473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H4">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I4">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J4">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N4">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O4">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P4">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q4">
-        <v>0.05348220546066667</v>
+        <v>4.914775970346001</v>
       </c>
       <c r="R4">
-        <v>0.481339849146</v>
+        <v>44.232983733114</v>
       </c>
       <c r="S4">
-        <v>3.425937107977799E-05</v>
+        <v>0.02089255997680019</v>
       </c>
       <c r="T4">
-        <v>3.425937107977798E-05</v>
+        <v>0.02089255997680018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H5">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I5">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J5">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N5">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P5">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q5">
-        <v>0.216824572172</v>
+        <v>7.196951259388001</v>
       </c>
       <c r="R5">
-        <v>1.951421149548</v>
+        <v>64.772561334492</v>
       </c>
       <c r="S5">
-        <v>0.0001388924299824874</v>
+        <v>0.03059401623677383</v>
       </c>
       <c r="T5">
-        <v>0.0001388924299824874</v>
+        <v>0.03059401623677382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H6">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I6">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J6">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N6">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O6">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P6">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q6">
-        <v>0.01778592855866667</v>
+        <v>0.5856008675513333</v>
       </c>
       <c r="R6">
-        <v>0.160073357028</v>
+        <v>5.270407807962</v>
       </c>
       <c r="S6">
-        <v>1.139322361973116E-05</v>
+        <v>0.002489371096791036</v>
       </c>
       <c r="T6">
-        <v>1.139322361973116E-05</v>
+        <v>0.002489371096791035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H7">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I7">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J7">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N7">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P7">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q7">
-        <v>0.019747952432</v>
+        <v>2.075456235754</v>
       </c>
       <c r="R7">
-        <v>0.177731571888</v>
+        <v>18.679106121786</v>
       </c>
       <c r="S7">
-        <v>1.265004733081288E-05</v>
+        <v>0.008822699985989743</v>
       </c>
       <c r="T7">
-        <v>1.265004733081287E-05</v>
+        <v>0.008822699985989741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J8">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N8">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P8">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q8">
-        <v>1.858560912448111</v>
+        <v>1.902594885886333</v>
       </c>
       <c r="R8">
-        <v>16.727048212033</v>
+        <v>17.123353972977</v>
       </c>
       <c r="S8">
-        <v>0.001190547910758071</v>
+        <v>0.008087871757486252</v>
       </c>
       <c r="T8">
-        <v>0.001190547910758071</v>
+        <v>0.008087871757486251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J9">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P9">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q9">
         <v>16.41254584405355</v>
@@ -1013,10 +1013,10 @@
         <v>147.712912596482</v>
       </c>
       <c r="S9">
-        <v>0.01051346879942766</v>
+        <v>0.06976922254194451</v>
       </c>
       <c r="T9">
-        <v>0.01051346879942766</v>
+        <v>0.06976922254194451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I10">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J10">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N10">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O10">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P10">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q10">
-        <v>3.307050051814111</v>
+        <v>5.807500457377</v>
       </c>
       <c r="R10">
-        <v>29.763450466327</v>
+        <v>52.267504116393</v>
       </c>
       <c r="S10">
-        <v>0.002118414039372833</v>
+        <v>0.02468750403947742</v>
       </c>
       <c r="T10">
-        <v>0.002118414039372833</v>
+        <v>0.02468750403947742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I11">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J11">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N11">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P11">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q11">
-        <v>13.40725773104733</v>
+        <v>8.504212192539333</v>
       </c>
       <c r="R11">
-        <v>120.665319579426</v>
+        <v>76.53790973285399</v>
       </c>
       <c r="S11">
-        <v>0.008588355955290242</v>
+        <v>0.0361511418547029</v>
       </c>
       <c r="T11">
-        <v>0.00858835595529024</v>
+        <v>0.0361511418547029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I12">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J12">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N12">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O12">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P12">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q12">
-        <v>1.099785535298444</v>
+        <v>0.6919699548187777</v>
       </c>
       <c r="R12">
-        <v>9.898069817685998</v>
+        <v>6.227729593368998</v>
       </c>
       <c r="S12">
-        <v>0.0007044952697336282</v>
+        <v>0.002941542782503929</v>
       </c>
       <c r="T12">
-        <v>0.000704495269733628</v>
+        <v>0.002941542782503929</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I13">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J13">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N13">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P13">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q13">
-        <v>1.221106469917333</v>
+        <v>2.452444040406333</v>
       </c>
       <c r="R13">
-        <v>10.989958229256</v>
+        <v>22.071996363657</v>
       </c>
       <c r="S13">
-        <v>0.0007822104440248378</v>
+        <v>0.01042526343277623</v>
       </c>
       <c r="T13">
-        <v>0.0007822104440248377</v>
+        <v>0.01042526343277623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H14">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I14">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J14">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N14">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P14">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q14">
-        <v>25.439204486043</v>
+        <v>3.436456073689333</v>
       </c>
       <c r="R14">
-        <v>228.952840374387</v>
+        <v>30.928104663204</v>
       </c>
       <c r="S14">
-        <v>0.01629572189394218</v>
+        <v>0.01460826801880436</v>
       </c>
       <c r="T14">
-        <v>0.01629572189394218</v>
+        <v>0.01460826801880436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H15">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I15">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J15">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P15">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q15">
-        <v>224.648063492022</v>
+        <v>29.64424705905155</v>
       </c>
       <c r="R15">
-        <v>2021.832571428198</v>
+        <v>266.798223531464</v>
       </c>
       <c r="S15">
-        <v>0.1439039640051293</v>
+        <v>0.1260167733758809</v>
       </c>
       <c r="T15">
-        <v>0.1439039640051294</v>
+        <v>0.1260167733758809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H16">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I16">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J16">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N16">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O16">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P16">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q16">
-        <v>45.26551804151701</v>
+        <v>10.489474332004</v>
       </c>
       <c r="R16">
-        <v>407.389662373653</v>
+        <v>94.40526898803601</v>
       </c>
       <c r="S16">
-        <v>0.02899596541214488</v>
+        <v>0.04459042953916602</v>
       </c>
       <c r="T16">
-        <v>0.02899596541214487</v>
+        <v>0.04459042953916601</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H17">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I17">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J17">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N17">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P17">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q17">
-        <v>183.512936666646</v>
+        <v>15.36025974724533</v>
       </c>
       <c r="R17">
-        <v>1651.616429999814</v>
+        <v>138.242337725208</v>
       </c>
       <c r="S17">
-        <v>0.1175538245113359</v>
+        <v>0.06529598703274368</v>
       </c>
       <c r="T17">
-        <v>0.1175538245113359</v>
+        <v>0.06529598703274368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H18">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I18">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J18">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N18">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O18">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P18">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q18">
-        <v>15.053404457106</v>
+        <v>1.249832201109778</v>
       </c>
       <c r="R18">
-        <v>135.480640113954</v>
+        <v>11.248489809988</v>
       </c>
       <c r="S18">
-        <v>0.009642836619541866</v>
+        <v>0.005312997861992867</v>
       </c>
       <c r="T18">
-        <v>0.009642836619541864</v>
+        <v>0.005312997861992867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H19">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I19">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J19">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N19">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P19">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q19">
-        <v>16.713994671576</v>
+        <v>4.429590492729333</v>
       </c>
       <c r="R19">
-        <v>150.425952044184</v>
+        <v>39.866314434564</v>
       </c>
       <c r="S19">
-        <v>0.01070656942335857</v>
+        <v>0.01883005158330671</v>
       </c>
       <c r="T19">
-        <v>0.01070656942335857</v>
+        <v>0.01883005158330671</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H20">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I20">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J20">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N20">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P20">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q20">
-        <v>0.6823607734844445</v>
+        <v>0.5797485800306666</v>
       </c>
       <c r="R20">
-        <v>6.14124696136</v>
+        <v>5.217737220276</v>
       </c>
       <c r="S20">
-        <v>0.0004371033458274387</v>
+        <v>0.002464493204336784</v>
       </c>
       <c r="T20">
-        <v>0.0004371033458274387</v>
+        <v>0.002464493204336784</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H21">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I21">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J21">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P21">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q21">
-        <v>6.025779086382222</v>
+        <v>5.001143553135111</v>
       </c>
       <c r="R21">
-        <v>54.23201177744</v>
+        <v>45.010291978216</v>
       </c>
       <c r="S21">
-        <v>0.00385996426263609</v>
+        <v>0.02125970588830461</v>
       </c>
       <c r="T21">
-        <v>0.003859964262636091</v>
+        <v>0.02125970588830461</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H22">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I22">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J22">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N22">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O22">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P22">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q22">
-        <v>1.214165872204445</v>
+        <v>1.769630607476</v>
       </c>
       <c r="R22">
-        <v>10.92749284984</v>
+        <v>15.926675467284</v>
       </c>
       <c r="S22">
-        <v>0.0007777644696953725</v>
+        <v>0.00752264474038088</v>
       </c>
       <c r="T22">
-        <v>0.0007777644696953723</v>
+        <v>0.007522644740380878</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H23">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I23">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J23">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N23">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P23">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q23">
-        <v>4.922403508213334</v>
+        <v>2.591358244194667</v>
       </c>
       <c r="R23">
-        <v>44.30163157392001</v>
+        <v>23.322224197752</v>
       </c>
       <c r="S23">
-        <v>0.00315316930069958</v>
+        <v>0.01101578339783435</v>
       </c>
       <c r="T23">
-        <v>0.00315316930069958</v>
+        <v>0.01101578339783435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H24">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I24">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J24">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N24">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O24">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P24">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q24">
-        <v>0.4037804214577778</v>
+        <v>0.2108533990635555</v>
       </c>
       <c r="R24">
-        <v>3.63402379312</v>
+        <v>1.897680591572</v>
       </c>
       <c r="S24">
-        <v>0.0002586516987158429</v>
+        <v>0.0008963312494460222</v>
       </c>
       <c r="T24">
-        <v>0.0002586516987158428</v>
+        <v>0.0008963312494460222</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H25">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I25">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J25">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N25">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P25">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q25">
-        <v>0.4483227586133334</v>
+        <v>0.7472956857906666</v>
       </c>
       <c r="R25">
-        <v>4.03490482752</v>
+        <v>6.725661172116</v>
       </c>
       <c r="S25">
-        <v>0.0002871844124330258</v>
+        <v>0.003176730746220844</v>
       </c>
       <c r="T25">
-        <v>0.0002871844124330258</v>
+        <v>0.003176730746220844</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H26">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I26">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J26">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N26">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P26">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q26">
-        <v>0.245988009143</v>
+        <v>3.112450466689666</v>
       </c>
       <c r="R26">
-        <v>2.213892082287</v>
+        <v>28.012054200207</v>
       </c>
       <c r="S26">
-        <v>0.000157573802609987</v>
+        <v>0.01323093024839455</v>
       </c>
       <c r="T26">
-        <v>0.000157573802609987</v>
+        <v>0.01323093024839455</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H27">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I27">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J27">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P27">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q27">
-        <v>2.172266429422</v>
+        <v>26.84924486596244</v>
       </c>
       <c r="R27">
-        <v>19.550397864798</v>
+        <v>241.643203793662</v>
       </c>
       <c r="S27">
-        <v>0.001391499865211149</v>
+        <v>0.1141353058773142</v>
       </c>
       <c r="T27">
-        <v>0.001391499865211149</v>
+        <v>0.1141353058773142</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H28">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I28">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J28">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N28">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O28">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P28">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q28">
-        <v>0.437701370417</v>
+        <v>9.500476240607</v>
       </c>
       <c r="R28">
-        <v>3.939312333753</v>
+        <v>85.504286165463</v>
       </c>
       <c r="S28">
-        <v>0.0002803806152360652</v>
+        <v>0.04038622937498273</v>
       </c>
       <c r="T28">
-        <v>0.0002803806152360651</v>
+        <v>0.04038622937498272</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H29">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I29">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J29">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N29">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P29">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q29">
-        <v>1.774504464846</v>
+        <v>13.91202057981267</v>
       </c>
       <c r="R29">
-        <v>15.970540183614</v>
+        <v>125.208185218314</v>
       </c>
       <c r="S29">
-        <v>0.001136703440335726</v>
+        <v>0.05913956732024801</v>
       </c>
       <c r="T29">
-        <v>0.001136703440335726</v>
+        <v>0.05913956732024801</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H30">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I30">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J30">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N30">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O30">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P30">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q30">
-        <v>0.145561037306</v>
+        <v>1.131992009853222</v>
       </c>
       <c r="R30">
-        <v>1.310049335754</v>
+        <v>10.187928088679</v>
       </c>
       <c r="S30">
-        <v>9.324278138625399E-05</v>
+        <v>0.004812062869561895</v>
       </c>
       <c r="T30">
-        <v>9.324278138625397E-05</v>
+        <v>0.004812062869561895</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H31">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I31">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J31">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N31">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P31">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q31">
-        <v>0.161618350776</v>
+        <v>4.011947396009666</v>
       </c>
       <c r="R31">
-        <v>1.454565156984</v>
+        <v>36.107526564087</v>
       </c>
       <c r="S31">
-        <v>0.0001035286971590735</v>
+        <v>0.01705466375286244</v>
       </c>
       <c r="T31">
-        <v>0.0001035286971590735</v>
+        <v>0.01705466375286244</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H32">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I32">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J32">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.377875666666666</v>
+        <v>1.410521</v>
       </c>
       <c r="N32">
-        <v>4.133627</v>
+        <v>4.231563</v>
       </c>
       <c r="O32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="P32">
-        <v>0.04981894710555809</v>
+        <v>0.05318779639358549</v>
       </c>
       <c r="Q32">
-        <v>49.5160435925071</v>
+        <v>1.870543617203333</v>
       </c>
       <c r="R32">
-        <v>445.6443923325639</v>
+        <v>16.83489255483</v>
       </c>
       <c r="S32">
-        <v>0.03171874639847768</v>
+        <v>0.007951622809958953</v>
       </c>
       <c r="T32">
-        <v>0.03171874639847767</v>
+        <v>0.007951622809958951</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H33">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I33">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J33">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>36.503158</v>
       </c>
       <c r="O33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="P33">
-        <v>0.4399402504357141</v>
+        <v>0.4588192437231541</v>
       </c>
       <c r="Q33">
-        <v>437.2653756113395</v>
+        <v>16.13605875764222</v>
       </c>
       <c r="R33">
-        <v>3935.388380502055</v>
+        <v>145.22452881878</v>
       </c>
       <c r="S33">
-        <v>0.2801013278037814</v>
+        <v>0.06859388452643517</v>
       </c>
       <c r="T33">
-        <v>0.2801013278037814</v>
+        <v>0.06859388452643517</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H34">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I34">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J34">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.451737666666667</v>
+        <v>4.305489000000001</v>
       </c>
       <c r="N34">
-        <v>7.355213</v>
+        <v>12.916467</v>
       </c>
       <c r="O34">
-        <v>0.08864587138537494</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="P34">
-        <v>0.08864587138537493</v>
+        <v>0.1623509840029479</v>
       </c>
       <c r="Q34">
-        <v>88.10689681003511</v>
+        <v>5.709666830830001</v>
       </c>
       <c r="R34">
-        <v>792.962071290316</v>
+        <v>51.38700147747001</v>
       </c>
       <c r="S34">
-        <v>0.05643908747784603</v>
+        <v>0.02427161633214065</v>
       </c>
       <c r="T34">
-        <v>0.05643908747784601</v>
+        <v>0.02427161633214065</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H35">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I35">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J35">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.939698</v>
+        <v>6.304742</v>
       </c>
       <c r="N35">
-        <v>29.819094</v>
+        <v>18.914226</v>
       </c>
       <c r="O35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="P35">
-        <v>0.3593831438399412</v>
+        <v>0.2377386326116995</v>
       </c>
       <c r="Q35">
-        <v>357.1980632004453</v>
+        <v>8.360949540073333</v>
       </c>
       <c r="R35">
-        <v>3214.782568804007</v>
+        <v>75.24854586066</v>
       </c>
       <c r="S35">
-        <v>0.2288121982022973</v>
+        <v>0.03554213676939671</v>
       </c>
       <c r="T35">
-        <v>0.2288121982022972</v>
+        <v>0.03554213676939671</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H36">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I36">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J36">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8153446666666667</v>
+        <v>0.5130036666666666</v>
       </c>
       <c r="N36">
-        <v>2.446034</v>
+        <v>1.539011</v>
       </c>
       <c r="O36">
-        <v>0.02947988254973095</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="P36">
-        <v>0.02947988254973094</v>
+        <v>0.01934429517308106</v>
       </c>
       <c r="Q36">
-        <v>29.30064231067644</v>
+        <v>0.6803129725011111</v>
       </c>
       <c r="R36">
-        <v>263.705780796088</v>
+        <v>6.12281675251</v>
       </c>
       <c r="S36">
-        <v>0.01876926295673363</v>
+        <v>0.002891989312785308</v>
       </c>
       <c r="T36">
-        <v>0.01876926295673362</v>
+        <v>0.002891989312785308</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H37">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I37">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J37">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.905288</v>
+        <v>1.818161</v>
       </c>
       <c r="N37">
-        <v>2.715864</v>
+        <v>5.454483</v>
       </c>
       <c r="O37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="P37">
-        <v>0.0327319046836808</v>
+        <v>0.06855904809553193</v>
       </c>
       <c r="Q37">
-        <v>32.53289186840533</v>
+        <v>2.411129968003333</v>
       </c>
       <c r="R37">
-        <v>292.796026815648</v>
+        <v>21.70016971203</v>
       </c>
       <c r="S37">
-        <v>0.02083976165937449</v>
+        <v>0.01024963859437596</v>
       </c>
       <c r="T37">
-        <v>0.02083976165937448</v>
+        <v>0.01024963859437596</v>
       </c>
     </row>
   </sheetData>
